--- a/biology/Botanique/Fonds_national_juif/Fonds_national_juif.xlsx
+++ b/biology/Botanique/Fonds_national_juif/Fonds_national_juif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Fonds national juif (FNJ), Jewish National Fund (JNF) ou Keren Kayemeth LeIsrael (KKL), en hébreu, littéralement : « fonds pour la création d'Israël », possède et gère plusieurs centaines de milliers d'hectares[1] de terres en Israël. Fondé en 1901 à Bâle (Suisse) en tant que fonds central du mouvement sioniste, il s'occupa du rachat de terres en Palestine et de la préparation des futurs pionniers sur le terrain. Il est connu pour avoir planté de nombreuses forêts.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fonds national juif (FNJ), Jewish National Fund (JNF) ou Keren Kayemeth LeIsrael (KKL), en hébreu, littéralement : « fonds pour la création d'Israël », possède et gère plusieurs centaines de milliers d'hectares de terres en Israël. Fondé en 1901 à Bâle (Suisse) en tant que fonds central du mouvement sioniste, il s'occupa du rachat de terres en Palestine et de la préparation des futurs pionniers sur le terrain. Il est connu pour avoir planté de nombreuses forêts.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Avant 1948</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le KKL est créé en 1901, à l'initiative du professeur Tzvi Herman Shapira faisant suite à une décision du 5e Congrès sioniste à Bâle. La proposition du professeur Shapira de racheter des terres qui constitueront le territoire de la nation future, avait été faite à la conférence de Katowice en 1884, ainsi qu'aux premier (1897), troisième et cinquième (1901) Congrès sionistes. En 1903, 800 acres (320 hectares) sont achetées près de Hadera[2] et les premiers arbres, des oliviers sont plantés à Houlda en 1908[2]. Dès la première décennie du XXe siècle, le KKL participe à la fondation de Tel-Aviv et du kibboutz de Degania et à l'achat de terrains pour la forêt de Ben-Shemen[3]. Jusqu'à la fin de la Première Guerre mondiale, le KKL cible ses activités dans l'achat de terrains et dans l'installation des pionniers. Avec la création du Keren Hayessod, le KKL limite ses activités au rachat de terres[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le KKL est créé en 1901, à l'initiative du professeur Tzvi Herman Shapira faisant suite à une décision du 5e Congrès sioniste à Bâle. La proposition du professeur Shapira de racheter des terres qui constitueront le territoire de la nation future, avait été faite à la conférence de Katowice en 1884, ainsi qu'aux premier (1897), troisième et cinquième (1901) Congrès sionistes. En 1903, 800 acres (320 hectares) sont achetées près de Hadera et les premiers arbres, des oliviers sont plantés à Houlda en 1908. Dès la première décennie du XXe siècle, le KKL participe à la fondation de Tel-Aviv et du kibboutz de Degania et à l'achat de terrains pour la forêt de Ben-Shemen. Jusqu'à la fin de la Première Guerre mondiale, le KKL cible ses activités dans l'achat de terrains et dans l'installation des pionniers. Avec la création du Keren Hayessod, le KKL limite ses activités au rachat de terres.
 Au départ, il est financé grâce à des fonds provenant, d'une part des dons récoltés dans les fameuses « boîtes bleues », répandues dans toute la Diaspora, et d'autre part de la vente de timbres-poste-KKL, qui remplissent en même temps une fonction pédagogique.
-Le rachat des terres est un élément essentiel du projet sioniste, et de fait, favorise l'immigration et l'intégration des pionniers. Le KKL s'occupe également de l'assainissement des terrains marécageux. À la veille de la naissance de l'État d'Israël, le KKL compte pour plus de 1 000 hectares de terres[4] dont il est responsable. Aujourd'hui, c'est le directeur des terrains d'Israël, nommé directement par le ministère de l'agriculture, qui gère l'entreprise. À la tête de l'organisation se réunit un conseil public, composé de représentants gouvernementaux et de 6 membres du KKL.
-Au moment de la proclamation de l'État d'Israël en 1948, le KKL possédait 12,5 % des terres du pays, sur lesquelles vivent en 2011 80 % de la population israélienne[2].
+Le rachat des terres est un élément essentiel du projet sioniste, et de fait, favorise l'immigration et l'intégration des pionniers. Le KKL s'occupe également de l'assainissement des terrains marécageux. À la veille de la naissance de l'État d'Israël, le KKL compte pour plus de 1 000 hectares de terres dont il est responsable. Aujourd'hui, c'est le directeur des terrains d'Israël, nommé directement par le ministère de l'agriculture, qui gère l'entreprise. À la tête de l'organisation se réunit un conseil public, composé de représentants gouvernementaux et de 6 membres du KKL.
+Au moment de la proclamation de l'État d'Israël en 1948, le KKL possédait 12,5 % des terres du pays, sur lesquelles vivent en 2011 80 % de la population israélienne.
 </t>
         </is>
       </c>
@@ -545,19 +559,56 @@
           <t>Après 1948</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite de la guerre de 1948, de l'exode de la population palestinienne et de l'interdiction faite aux réfugiés de rentrer chez eux, de nombreuses terres cultivées se retrouvèrent « abandonnées ». Yossef Weiz négocia avec le gouvernement pour qu'on confie au KKL la propriété de celles-ci. Elles représentaient une surface de plus de 300 000 dounams (30 000 hectares) à la mi-mai[5] et de plus de 680000 à la fin de la guerre[6]. David Ben Gourion finit par en concéder le contrôle au Fonds pour qu'il puisse superviser ou organiser les locations de terres aux colons[7].
-Avec la création de l'État d'Israël, l'ordre des priorités se trouve modifié. Le KKL concentre principalement ses efforts sur le reboisement des terres, la construction de routes, l'aménagement des zones désertiques et l'assainissement[8]. De 1948 à 1993, il a fait planter plus de 200 000 000 d'arbres[9]. Depuis sa création, le KKL dit avoir aménagé plus de 7 000 km de route et de sentier, racheté ou assaini 380 000 hectares de terre, installé 175 réservoirs d'eau[10], draîné 48 500 hectares de la vallée de la Houla[11]. C’est la première grande entreprise publique qui sera suivie par la plantation de la forêt commémorant les 6 millions de morts de la Shoah appelée la forêt des Martyrs[12],[13]. En 2019, la SPNI estime à 100 000 hectares la surface reboisée par le Fonds national juif en un siècle[14].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de la guerre de 1948, de l'exode de la population palestinienne et de l'interdiction faite aux réfugiés de rentrer chez eux, de nombreuses terres cultivées se retrouvèrent « abandonnées ». Yossef Weiz négocia avec le gouvernement pour qu'on confie au KKL la propriété de celles-ci. Elles représentaient une surface de plus de 300 000 dounams (30 000 hectares) à la mi-mai et de plus de 680000 à la fin de la guerre. David Ben Gourion finit par en concéder le contrôle au Fonds pour qu'il puisse superviser ou organiser les locations de terres aux colons.
+Avec la création de l'État d'Israël, l'ordre des priorités se trouve modifié. Le KKL concentre principalement ses efforts sur le reboisement des terres, la construction de routes, l'aménagement des zones désertiques et l'assainissement. De 1948 à 1993, il a fait planter plus de 200 000 000 d'arbres. Depuis sa création, le KKL dit avoir aménagé plus de 7 000 km de route et de sentier, racheté ou assaini 380 000 hectares de terre, installé 175 réservoirs d'eau, draîné 48 500 hectares de la vallée de la Houla. C’est la première grande entreprise publique qui sera suivie par la plantation de la forêt commémorant les 6 millions de morts de la Shoah appelée la forêt des Martyrs,. En 2019, la SPNI estime à 100 000 hectares la surface reboisée par le Fonds national juif en un siècle.
 Le KKL fait connaître son programme de rachat de terres grâce au slogan : « La Terre ne sera pas bradée car c'est ma Terre. » La « boîte bleue » et les timbres sont familiers de nombreuses familles de toute la Diaspora. Les comités du KKL sont présents dans 50 pays, où ils servent de centres actifs dans leur engagement pour Israël.
-Évolution et critique de la politique de reboisement
-La politique de reboisement entreprise par le Fonds national juif a évolué à partir des années 1980. Durant la première partie du XXe siècle, les plantations touchaient surtout les zones les plus humides du centre et du nord d'Israël et consistaient en 51 % de pins et 8 % d'eucalyptus. Mais le labour profond et les herbicides ont endommagé la flore et la faune locale. Les plantations de forêts ne comportant qu'une espèce ne permettent pas un développement durable[15]. Aussi, depuis les années 1980, la politique du FNJ a-t-elle changé. À l'incitation de la SPNI, le FNJ a changé sa politique de monoculture : la densité des plantations a diminué et les divers arbres forestiers locaux ont été préférés aux pins[16]. Bien que la réhabilitation des forêts naturelles ait permis le retour de nombreuses espèces, le boisement dense de pins constitue un système écologique pauvre où la vie sauvage est en déclin. Le changement de politique cité plus haut a permis le retour d'arbres indigènes dont des arbres à larges feuilles et des buissons, même si en 2006, les forêts en Israël ne comportent encore que 11 % d'espèces indigènes[17]. Les nouvelles plantations sont moins denses que les forêts de pins plus anciennes et cela permet le retour d'une vie sauvage plus variée[16].
-De plus, dans les années 1960, une politique de boisement a été entreprise dans la région semi-aride du nord-Néguev qui a bénéficié à 5 000 hectares en 2000. Toutefois, les arbres constituent des observatoires pour les oiseaux de proie qui ont mis en danger des espèces indigènes de lézards[16].
-Après la guerre d'indépendance d'Israël de 1948, des forêts furent plantées sur l'emplacement de villages arabes abandonnés dont la population avait fui ou avait été chassée[18],[19]. Les oliviers, dont les fruits et l'huile font partie intégrante des traditions palestinienne et israélienne[20] furent coupés et remplacés par des pins et des cyprès[21].  Toutefois, le FNJ explique que la première plantation jamais faite par le FNJ était une plantation d'oliviers en 1907 à Hadera, que dès l'année suivante 12 000 plants d'oliviers étaient enracinés dans la forêt de Houlda et qu'en 2017, 15 000 oliviers sont plantés chaque année[22].  
-Le reboisement permet surtout d'endiguer l'érosion des sols[23] et à faire reculer la désertification[24] même si plusieurs observateurs et historiens, comme  Walid Khalidi, affirment que le reboisement opéré par le FNJ serait une politique délibérée d'effacer et nier toutes traces de la présence arabe avant 1948 et pour couvrir la destruction des villages arabes[25],[26],[27].
-Dans la région désertique du Néguev, l'État d'Israël et le FNJ ont pris possession de dizaines de milliers d'hectares et expulsé les populations locales[28] car, sur ces terres qu'ils traversent, les Bédouins (nomades) n'ont généralement « aucun droit formel » (titre de propriété)[29], de ce fait l'État d'Israël les transfère dans des villages créés sur mesure[30]. Pour ce qu'ils représentent dans ce conflit, les arbres plantés sont perçus comme des armes et sont l'objet de différents dommages de la part des Bédouins. Des témoignages les accusent entre autres de déraciner les jeunes plants[29] ou d'emmener délibérément paître leurs troupeaux là où furent plantés les arbres[29]. La politique d'Israël  vis-à-vis des Bédouins est présentée en ces termes par le major-général Doron Almog, en 2013 : « Nous voulons leur apporter l'eau, l'électricité, les écoles et les hôpitaux auxquelles ils ont droit. Mais pour que cela se fasse à un coût supportable pour l'État d'Israël, il faut qu'ils acceptent de quitter leurs villages pour se réunir dans des centres urbains. »[31] Ces centres urbains font l'objet, dès 2007, de très vives critiques de la part d'universitaires comme Amnon Raz-Krakotzkin qui écrit : « [Leur] création avait pour but explicite de les chasser de leur terre pour les regrouper dans des ghettos qui ne disposent d'aucun des aménagements de base[32] ».
-En 2011, Amnesty International alerte l'opinion internationale quant à l'expulsion des habitants et la destruction systématique du village bédouin d'al-Arakib, dans le Néguev sur lequel le FNJ veut implanter une forêt[33]. La destruction du village avait eu lieu en août 2010. Selon les autorités, l'occupation du terrain est illégale alors que les résidents disent s'y être établis dans les années 1990[34]. Le FNJ répond aux accusations qui le visent que le conflit n'implique que l'État et les habitants d'al-Arakib,  que les plantations ont été entreprises après la décision des tribunaux et surtout que ces plantations sont totalement réversibles et n'empêcheraient pas un nouvel établissement des Bédouins, si une telle décision était prise[35].
-En 2019, la Société pour la protection de la nature en Israël publie un ouvrage[14] où elle dénonce la politique de reboisement systématique du KKL car elle contribue à détruire les écosystèmes naturels israéliens tels que les matorral, les prairies, les plaines limoneuses et les déserts de sable ou de pierre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fonds_national_juif</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonds_national_juif</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Après 1948</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Évolution et critique de la politique de reboisement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La politique de reboisement entreprise par le Fonds national juif a évolué à partir des années 1980. Durant la première partie du XXe siècle, les plantations touchaient surtout les zones les plus humides du centre et du nord d'Israël et consistaient en 51 % de pins et 8 % d'eucalyptus. Mais le labour profond et les herbicides ont endommagé la flore et la faune locale. Les plantations de forêts ne comportant qu'une espèce ne permettent pas un développement durable. Aussi, depuis les années 1980, la politique du FNJ a-t-elle changé. À l'incitation de la SPNI, le FNJ a changé sa politique de monoculture : la densité des plantations a diminué et les divers arbres forestiers locaux ont été préférés aux pins. Bien que la réhabilitation des forêts naturelles ait permis le retour de nombreuses espèces, le boisement dense de pins constitue un système écologique pauvre où la vie sauvage est en déclin. Le changement de politique cité plus haut a permis le retour d'arbres indigènes dont des arbres à larges feuilles et des buissons, même si en 2006, les forêts en Israël ne comportent encore que 11 % d'espèces indigènes. Les nouvelles plantations sont moins denses que les forêts de pins plus anciennes et cela permet le retour d'une vie sauvage plus variée.
+De plus, dans les années 1960, une politique de boisement a été entreprise dans la région semi-aride du nord-Néguev qui a bénéficié à 5 000 hectares en 2000. Toutefois, les arbres constituent des observatoires pour les oiseaux de proie qui ont mis en danger des espèces indigènes de lézards.
+Après la guerre d'indépendance d'Israël de 1948, des forêts furent plantées sur l'emplacement de villages arabes abandonnés dont la population avait fui ou avait été chassée,. Les oliviers, dont les fruits et l'huile font partie intégrante des traditions palestinienne et israélienne furent coupés et remplacés par des pins et des cyprès.  Toutefois, le FNJ explique que la première plantation jamais faite par le FNJ était une plantation d'oliviers en 1907 à Hadera, que dès l'année suivante 12 000 plants d'oliviers étaient enracinés dans la forêt de Houlda et qu'en 2017, 15 000 oliviers sont plantés chaque année.  
+Le reboisement permet surtout d'endiguer l'érosion des sols et à faire reculer la désertification même si plusieurs observateurs et historiens, comme  Walid Khalidi, affirment que le reboisement opéré par le FNJ serait une politique délibérée d'effacer et nier toutes traces de la présence arabe avant 1948 et pour couvrir la destruction des villages arabes.
+Dans la région désertique du Néguev, l'État d'Israël et le FNJ ont pris possession de dizaines de milliers d'hectares et expulsé les populations locales car, sur ces terres qu'ils traversent, les Bédouins (nomades) n'ont généralement « aucun droit formel » (titre de propriété), de ce fait l'État d'Israël les transfère dans des villages créés sur mesure. Pour ce qu'ils représentent dans ce conflit, les arbres plantés sont perçus comme des armes et sont l'objet de différents dommages de la part des Bédouins. Des témoignages les accusent entre autres de déraciner les jeunes plants ou d'emmener délibérément paître leurs troupeaux là où furent plantés les arbres. La politique d'Israël  vis-à-vis des Bédouins est présentée en ces termes par le major-général Doron Almog, en 2013 : « Nous voulons leur apporter l'eau, l'électricité, les écoles et les hôpitaux auxquelles ils ont droit. Mais pour que cela se fasse à un coût supportable pour l'État d'Israël, il faut qu'ils acceptent de quitter leurs villages pour se réunir dans des centres urbains. » Ces centres urbains font l'objet, dès 2007, de très vives critiques de la part d'universitaires comme Amnon Raz-Krakotzkin qui écrit : « [Leur] création avait pour but explicite de les chasser de leur terre pour les regrouper dans des ghettos qui ne disposent d'aucun des aménagements de base ».
+En 2011, Amnesty International alerte l'opinion internationale quant à l'expulsion des habitants et la destruction systématique du village bédouin d'al-Arakib, dans le Néguev sur lequel le FNJ veut implanter une forêt. La destruction du village avait eu lieu en août 2010. Selon les autorités, l'occupation du terrain est illégale alors que les résidents disent s'y être établis dans les années 1990. Le FNJ répond aux accusations qui le visent que le conflit n'implique que l'État et les habitants d'al-Arakib,  que les plantations ont été entreprises après la décision des tribunaux et surtout que ces plantations sont totalement réversibles et n'empêcheraient pas un nouvel établissement des Bédouins, si une telle décision était prise.
+En 2019, la Société pour la protection de la nature en Israël publie un ouvrage où elle dénonce la politique de reboisement systématique du KKL car elle contribue à détruire les écosystèmes naturels israéliens tels que les matorral, les prairies, les plaines limoneuses et les déserts de sable ou de pierre.
 </t>
         </is>
       </c>
